--- a/datapreparation/citystatus.xlsx
+++ b/datapreparation/citystatus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="-2140" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>berlin</t>
   </si>
@@ -104,19 +104,34 @@
     <t>X</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>X C</t>
-  </si>
-  <si>
-    <t>meta:parking</t>
-  </si>
-  <si>
-    <t>meta:dimensions</t>
-  </si>
-  <si>
-    <t>meta:modal split</t>
+    <t>Copy to server</t>
+  </si>
+  <si>
+    <t>Meta data</t>
+  </si>
+  <si>
+    <t>on-street parking</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>modal split</t>
+  </si>
+  <si>
+    <t>DB and geometry operations</t>
+  </si>
+  <si>
+    <t>Geo data</t>
+  </si>
+  <si>
+    <t>fix online</t>
+  </si>
+  <si>
+    <t>helsinki</t>
+  </si>
+  <si>
+    <t>rome</t>
   </si>
 </sst>
 </file>
@@ -152,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,11 +190,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -202,6 +226,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +512,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,396 +524,512 @@
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="P1:R1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/datapreparation/citystatus.xlsx
+++ b/datapreparation/citystatus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="31280" yWindow="-9660" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>berlin</t>
   </si>
@@ -125,13 +125,13 @@
     <t>Geo data</t>
   </si>
   <si>
-    <t>fix online</t>
-  </si>
-  <si>
     <t>helsinki</t>
   </si>
   <si>
     <t>rome</t>
+  </si>
+  <si>
+    <t>X C bike</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -232,6 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +516,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
@@ -728,13 +729,13 @@
         <v>24</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
+      <c r="L6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="7"/>
@@ -812,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="5"/>
@@ -844,12 +845,14 @@
       <c r="I9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="3"/>
@@ -880,12 +883,14 @@
       <c r="I10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="5"/>
@@ -944,7 +949,7 @@
         <v>24</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="5"/>
@@ -954,7 +959,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -974,7 +979,7 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -1018,11 +1023,41 @@
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/datapreparation/citystatus.xlsx
+++ b/datapreparation/citystatus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31280" yWindow="-9660" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
   <si>
     <t>berlin</t>
   </si>
@@ -131,7 +131,7 @@
     <t>rome</t>
   </si>
   <si>
-    <t>X C bike</t>
+    <t>sao paolo</t>
   </si>
 </sst>
 </file>
@@ -513,10 +513,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,7 +729,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>24</v>
@@ -1059,6 +1059,11 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
     </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>

--- a/datapreparation/citystatus.xlsx
+++ b/datapreparation/citystatus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="47200" yWindow="-8820" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="35">
   <si>
     <t>berlin</t>
   </si>
@@ -516,7 +516,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,10 +622,16 @@
         <v>24</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -660,10 +666,16 @@
         <v>24</v>
       </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -699,10 +711,16 @@
         <v>24</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -738,11 +756,15 @@
         <v>24</v>
       </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -778,10 +800,14 @@
         <v>24</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -816,10 +842,14 @@
         <v>24</v>
       </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -855,10 +885,14 @@
         <v>24</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -893,10 +927,14 @@
         <v>24</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -952,10 +990,14 @@
         <v>24</v>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="R12" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
